--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS_2024\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9CE1E3-E781-44BB-BDCE-25FB9E34902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF38C16-9057-48E1-81B4-7DC24388DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2280" windowWidth="10340" windowHeight="9380" xr2:uid="{761A82C7-1DE5-4384-A337-0377AF1435D8}"/>
+    <workbookView xWindow="7660" yWindow="2230" windowWidth="10340" windowHeight="9380" xr2:uid="{761A82C7-1DE5-4384-A337-0377AF1435D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>angelia</t>
+  </si>
+  <si>
+    <t>fitria</t>
+  </si>
+  <si>
     <t>level_id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>angel</t>
-  </si>
-  <si>
-    <t>angelia</t>
-  </si>
-  <si>
-    <t>fitria</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,27 +429,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>123456</v>
@@ -457,13 +457,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>123456</v>
